--- a/files/Modified_Templates/USDM_XLSX_Template.xlsx
+++ b/files/Modified_Templates/USDM_XLSX_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Conrad/Desktop/SCDM_Conference/Workshop/scdm_workshop_2024/files/Modified_Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3EF732-C953-DF46-9BE5-25125D4857E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EE935-A30E-024F-84D0-C791884716B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" firstSheet="20" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -26,20 +26,22 @@
     <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId11"/>
     <sheet name="vsBloodPressure" sheetId="24" r:id="rId12"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId13"/>
-    <sheet name="studyDesignConditions" sheetId="27" r:id="rId14"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId15"/>
-    <sheet name="studyDesignActivites(Empty)" sheetId="28" r:id="rId16"/>
-    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId17"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId18"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId19"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId20"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId21"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId22"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId23"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId24"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId25"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId26"/>
-    <sheet name="configuration" sheetId="10" r:id="rId27"/>
+    <sheet name="studyDesignTiming(template)" sheetId="30" r:id="rId14"/>
+    <sheet name="studyDesignConditions" sheetId="27" r:id="rId15"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId16"/>
+    <sheet name="studyDesignActivites(template)" sheetId="28" r:id="rId17"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId18"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId19"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId20"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId21"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId22"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId23"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId24"/>
+    <sheet name="studyDesignEncounters(template)" sheetId="29" r:id="rId25"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId26"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId27"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId28"/>
+    <sheet name="configuration" sheetId="10" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="821">
   <si>
     <t>Screening</t>
   </si>
@@ -2539,6 +2541,15 @@
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -28 days</t>
+  </si>
+  <si>
+    <t>E6</t>
   </si>
 </sst>
 </file>
@@ -2627,7 +2638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2757,13 +2768,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4832,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="106" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5536,6 +5550,314 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9243CE6-94CC-5C44-B433-B0B243202617}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5597,7 +5919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -5835,11 +6157,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A264E1C9-8E2F-4B40-9655-015C7EA20F61}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -5866,7 +6188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
   <dimension ref="A1:S1"/>
   <sheetViews>
@@ -5961,7 +6283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6016,87 +6338,6 @@
       </c>
       <c r="D3" s="8" t="s">
         <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>777</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="E2" s="3">
-        <v>300</v>
-      </c>
-      <c r="F2" s="3">
-        <v>300</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -6169,6 +6410,87 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3">
+        <v>300</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -6580,7 +6902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -6630,7 +6952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -6711,12 +7033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="111" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7055,7 +7377,234 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3D90F9-D143-0F46-8E56-BAE124E7E17E}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7199,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -7319,7 +7868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -8590,7 +9139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8739,144 +9288,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>806</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>808</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8968,6 +9517,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -8975,11 +9529,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11948,6 +12497,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11956,15 +12514,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12169,6 +12718,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12181,14 +12738,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/files/Modified_Templates/USDM_XLSX_Template.xlsx
+++ b/files/Modified_Templates/USDM_XLSX_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Conrad/Desktop/SCDM_Conference/Workshop/scdm_workshop_2024/files/Modified_Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EE935-A30E-024F-84D0-C791884716B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B9518-8BA0-8648-8AF6-5EFC962720D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" firstSheet="20" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" firstSheet="7" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,26 +22,27 @@
     <sheet name="studyDesignArms" sheetId="14" r:id="rId7"/>
     <sheet name="studyDesignEpochs" sheetId="15" r:id="rId8"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId10"/>
-    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId11"/>
-    <sheet name="vsBloodPressure" sheetId="24" r:id="rId12"/>
-    <sheet name="studyDesignTiming" sheetId="18" r:id="rId13"/>
-    <sheet name="studyDesignTiming(template)" sheetId="30" r:id="rId14"/>
-    <sheet name="studyDesignConditions" sheetId="27" r:id="rId15"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId16"/>
-    <sheet name="studyDesignActivites(template)" sheetId="28" r:id="rId17"/>
-    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId18"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId19"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId20"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId21"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId22"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId23"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId24"/>
-    <sheet name="studyDesignEncounters(template)" sheetId="29" r:id="rId25"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId26"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId27"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId28"/>
-    <sheet name="configuration" sheetId="10" r:id="rId29"/>
+    <sheet name="mainTimeline(template)" sheetId="31" r:id="rId10"/>
+    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId11"/>
+    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId12"/>
+    <sheet name="vsBloodPressure" sheetId="24" r:id="rId13"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId14"/>
+    <sheet name="studyDesignTiming(template)" sheetId="30" r:id="rId15"/>
+    <sheet name="studyDesignConditions" sheetId="27" r:id="rId16"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId17"/>
+    <sheet name="studyDesignActivites(template)" sheetId="28" r:id="rId18"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId19"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId20"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId21"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId22"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId23"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId24"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId25"/>
+    <sheet name="studyDesignEncounters(template)" sheetId="29" r:id="rId26"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId27"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId28"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId29"/>
+    <sheet name="configuration" sheetId="10" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="849">
   <si>
     <t>Screening</t>
   </si>
@@ -2550,6 +2551,90 @@
   </si>
   <si>
     <t>E6</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>Electronic Case Report Form (eCRF) Form RefName</t>
+  </si>
+  <si>
+    <t>Electronic Case Report Form (eCRF) Label</t>
+  </si>
+  <si>
+    <t>Inclusion/Exclusion Criteria Not Met</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>Substance Use</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>Genomics Findings</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>ECG Test Results</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Concomitant/Prior Medications</t>
+  </si>
+  <si>
+    <t>Laboratory Test Results</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2767,8 +2852,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2776,9 +2861,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3328,6 +3414,2208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAB0FB7-77BA-5049-8886-0BBBB9DF1C85}">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>832</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>833</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>822</v>
+      </c>
+      <c r="D11" t="s">
+        <v>834</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>823</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>823</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>824</v>
+      </c>
+      <c r="D16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>825</v>
+      </c>
+      <c r="D17" t="s">
+        <v>835</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>826</v>
+      </c>
+      <c r="D18" t="s">
+        <v>836</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>837</v>
+      </c>
+      <c r="D19" t="s">
+        <v>838</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>839</v>
+      </c>
+      <c r="D20" t="s">
+        <v>840</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>841</v>
+      </c>
+      <c r="D21" t="s">
+        <v>842</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" t="s">
+        <v>827</v>
+      </c>
+      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>828</v>
+      </c>
+      <c r="D23" t="s">
+        <v>843</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>828</v>
+      </c>
+      <c r="D24" t="s">
+        <v>843</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>828</v>
+      </c>
+      <c r="D25" t="s">
+        <v>843</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>831</v>
+      </c>
+      <c r="D26" t="s">
+        <v>844</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>837</v>
+      </c>
+      <c r="D27" t="s">
+        <v>838</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>829</v>
+      </c>
+      <c r="D28" t="s">
+        <v>845</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>830</v>
+      </c>
+      <c r="D29" t="s">
+        <v>846</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>830</v>
+      </c>
+      <c r="D30" t="s">
+        <v>846</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>830</v>
+      </c>
+      <c r="D31" t="s">
+        <v>846</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C32" t="s">
+        <v>830</v>
+      </c>
+      <c r="D32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>830</v>
+      </c>
+      <c r="D33" t="s">
+        <v>846</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C34" t="s">
+        <v>831</v>
+      </c>
+      <c r="D34" t="s">
+        <v>844</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>847</v>
+      </c>
+      <c r="D35" t="s">
+        <v>848</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD109B-C71D-E046-8A81-67D6F53B97EB}">
   <dimension ref="A1:V39"/>
   <sheetViews>
@@ -4064,7 +6352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -4492,7 +6780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -4842,7 +7130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -5549,7 +7837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9243CE6-94CC-5C44-B433-B0B243202617}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -5563,28 +7851,28 @@
       <c r="A1" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5857,7 +8145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5919,7 +8207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -6157,7 +8445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A264E1C9-8E2F-4B40-9655-015C7EA20F61}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -6188,7 +8476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
   <dimension ref="A1:S1"/>
   <sheetViews>
@@ -6283,69 +8571,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
   <dimension ref="A1:F2"/>
@@ -6410,6 +8635,69 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6490,7 +8778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -6902,7 +9190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -6952,7 +9240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -7033,7 +9321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -7377,11 +9665,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3D90F9-D143-0F46-8E56-BAE124E7E17E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
@@ -7604,7 +9892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7748,7 +10036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -7868,7 +10156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -9131,55 +11419,6 @@
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>486</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -9261,6 +11500,55 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9324,13 +11612,13 @@
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -9360,7 +11648,7 @@
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>682</v>
       </c>
       <c r="C7" s="47"/>
@@ -9420,12 +11708,12 @@
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -9517,11 +11805,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -9529,6 +11812,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9955,7 +12243,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+      <selection sqref="A1:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12497,26 +14785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12717,10 +14985,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12743,20 +15042,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>